--- a/biology/Médecine/Céfazoline/Céfazoline.xlsx
+++ b/biology/Médecine/Céfazoline/Céfazoline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9fazoline</t>
+          <t>Céfazoline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La céfazoline est un antibiotique de la classe des céphalosporines de première génération, découvert en 1969 par des chercheurs japonais[2] et initialement commercialisé en France sous les noms de spécialité Cefacidal (laboratoires Bristol-Myers Squibb) et Kefzol (laboratoires Eli Lilly).
+La céfazoline est un antibiotique de la classe des céphalosporines de première génération, découvert en 1969 par des chercheurs japonais et initialement commercialisé en France sous les noms de spécialité Cefacidal (laboratoires Bristol-Myers Squibb) et Kefzol (laboratoires Eli Lilly).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9fazoline</t>
+          <t>Céfazoline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Utilisation clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gram positifs : Staphylocoque non résistant à la méticilline, Streptocoque
 Moraxella catarrhalis, Escherichia coli, Klebsiella, Proteus.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9fazoline</t>
+          <t>Céfazoline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La céfazoline fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La céfazoline fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
